--- a/homepage.xlsx
+++ b/homepage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Test case number</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">a. click on the text field </t>
   </si>
   <si>
-    <t>Save the changes</t>
-  </si>
-  <si>
     <t>b. text field should be enabled</t>
   </si>
   <si>
@@ -62,21 +59,12 @@
     <t>a. Redirect to homepage</t>
   </si>
   <si>
-    <t>b.Viw the image carousel</t>
-  </si>
-  <si>
     <t>c. Images should change automatically for every 5 seconds</t>
   </si>
   <si>
     <t>Images should be changed automatically</t>
   </si>
   <si>
-    <t>Get quote button</t>
-  </si>
-  <si>
-    <t>a. Click on Get quote button</t>
-  </si>
-  <si>
     <t>b. Send the quote to the registered user</t>
   </si>
   <si>
@@ -161,28 +149,115 @@
     <t>Redirect to login page</t>
   </si>
   <si>
-    <t>2. View the Read more button on the bottom</t>
-  </si>
-  <si>
-    <t>3.Press on the button Read more</t>
-  </si>
-  <si>
-    <t>Fraternity host button</t>
-  </si>
-  <si>
-    <t>Redirect to host page</t>
-  </si>
-  <si>
-    <t>Fraternity Guard button</t>
-  </si>
-  <si>
-    <t>Redirect to guard page</t>
-  </si>
-  <si>
-    <t>Partygoer button</t>
-  </si>
-  <si>
-    <t>Redirect to part goer page</t>
+    <t>Should be able to type</t>
+  </si>
+  <si>
+    <t>User can be able to type</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>b.View the image carousel</t>
+  </si>
+  <si>
+    <t>Images are changing automatically</t>
+  </si>
+  <si>
+    <t>Functionality is yet to be done</t>
+  </si>
+  <si>
+    <t>a. Click on Submit button</t>
+  </si>
+  <si>
+    <t>Submit button</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Home page is displayed</t>
+  </si>
+  <si>
+    <t>About us page is displayed</t>
+  </si>
+  <si>
+    <t>How it works page is displayed</t>
+  </si>
+  <si>
+    <t>FAQs page is displayed</t>
+  </si>
+  <si>
+    <t>Contact us page is displayed</t>
+  </si>
+  <si>
+    <t>login page is displayed</t>
+  </si>
+  <si>
+    <t>Name text field</t>
+  </si>
+  <si>
+    <t>1. Go to homepage</t>
+  </si>
+  <si>
+    <t>2.View the text field</t>
+  </si>
+  <si>
+    <t>3.Type in the text field</t>
+  </si>
+  <si>
+    <t>Should be able to type a valid name</t>
+  </si>
+  <si>
+    <t>Email text field</t>
+  </si>
+  <si>
+    <t>2. View the text field</t>
+  </si>
+  <si>
+    <t>3. Should be able to type email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be able to type a valid email address </t>
+  </si>
+  <si>
+    <t>Download link</t>
+  </si>
+  <si>
+    <t>1. Go to home page</t>
+  </si>
+  <si>
+    <t>2.View the link download here</t>
+  </si>
+  <si>
+    <t>3.Click on the link</t>
+  </si>
+  <si>
+    <t>Should be able to download the app through the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to home page </t>
+  </si>
+  <si>
+    <t>2.View the link know more</t>
+  </si>
+  <si>
+    <t>3. Click on the link</t>
+  </si>
+  <si>
+    <t>Should be able to redirect to host page</t>
+  </si>
+  <si>
+    <t>Guard link</t>
+  </si>
+  <si>
+    <t>2. View the link know more</t>
+  </si>
+  <si>
+    <t>Should be able to redirect to guard page</t>
   </si>
 </sst>
 </file>
@@ -198,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,9 +305,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +601,8 @@
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,12 +637,18 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -567,23 +656,29 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,18 +686,24 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -610,18 +711,24 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,23 +736,29 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,170 +766,273 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
         <v>46</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>